--- a/DATA_goal/Junction_Flooding_324.xlsx
+++ b/DATA_goal/Junction_Flooding_324.xlsx
@@ -449,11 +449,11 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -467,10 +467,10 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>45005.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.03</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.98</v>
+        <v>39.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.19</v>
+        <v>31.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.74</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.65</v>
+        <v>46.5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.21</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.68</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.45</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>21.58</v>
+        <v>215.82</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.08</v>
+        <v>40.75</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.68</v>
+        <v>26.79</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.36</v>
+        <v>23.63</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.74</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.62</v>
+        <v>16.18</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.12</v>
+        <v>41.23</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45005.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.7</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.49</v>
+        <v>24.88</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.33</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.85</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.96</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.32</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.78</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.31</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.3</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.29</v>
+        <v>22.92</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45005.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.97</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.17</v>
+        <v>41.71</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.4</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.57</v>
+        <v>55.75</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.23</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.73</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.58</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.31</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.79</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.16</v>
+        <v>221.57</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.2</v>
+        <v>41.98</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.81</v>
+        <v>28.08</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.7</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.74</v>
+        <v>27.43</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.95</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.48</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.04</v>
+        <v>50.43</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45005.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.09</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.17</v>
+        <v>41.75</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.41</v>
+        <v>34.13</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.89</v>
+        <v>58.92</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.22</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.64</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.37</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.72</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>22.16</v>
+        <v>221.59</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.21</v>
+        <v>42.07</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.82</v>
+        <v>28.22</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.86</v>
+        <v>28.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.91</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.82</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.54</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.35</v>
+        <v>53.51</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_324.xlsx
+++ b/DATA_goal/Junction_Flooding_324.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>45005.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.74</v>
+        <v>18.737</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.53</v>
+        <v>12.527</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.03</v>
+        <v>4.029</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>39.83</v>
+        <v>39.827</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>31.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.74</v>
+        <v>14.745</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>46.5</v>
+        <v>46.499</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.69</v>
+        <v>22.687</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>9.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.21</v>
+        <v>14.208</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.68</v>
+        <v>15.679</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.31</v>
+        <v>16.314</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.71</v>
+        <v>4.706</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.45</v>
+        <v>20.445</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.44</v>
+        <v>3.441</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.244</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>215.82</v>
+        <v>215.823</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>40.75</v>
+        <v>40.754</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>26.79</v>
+        <v>26.795</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.63</v>
+        <v>13.632</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.069</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>23.63</v>
+        <v>23.634</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>10.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.74</v>
+        <v>12.744</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.18</v>
+        <v>16.181</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.455</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>41.23</v>
+        <v>41.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.42</v>
+        <v>7.422</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>16.92</v>
@@ -759,103 +759,103 @@
         <v>45005.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.21</v>
+        <v>7.206</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.7</v>
+        <v>4.697</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.502</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.46</v>
+        <v>15.459</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.13</v>
+        <v>12.131</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.67</v>
+        <v>5.672</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>24.88</v>
+        <v>24.877</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.73</v>
+        <v>8.726000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.61</v>
+        <v>3.606</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>5.19</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.16</v>
+        <v>6.158</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.33</v>
+        <v>6.334</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.82</v>
+        <v>1.816</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.64</v>
+        <v>5.639</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.84</v>
+        <v>7.839</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.09</v>
+        <v>5.093</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.47</v>
+        <v>1.471</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>78.54000000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.96</v>
+        <v>15.956</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.21</v>
+        <v>5.205</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.32</v>
+        <v>10.324</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.24</v>
+        <v>5.239</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.343</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.78</v>
+        <v>11.775</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.6</v>
+        <v>4.598</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.31</v>
+        <v>4.314</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.04</v>
+        <v>5.035</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.3</v>
+        <v>6.297</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.92</v>
+        <v>22.916</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.76</v>
+        <v>2.763</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.51</v>
+        <v>6.509</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45005.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.97</v>
+        <v>13.972</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.42</v>
+        <v>1.415</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41.71</v>
+        <v>41.706</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34</v>
+        <v>33.998</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.12</v>
+        <v>15.123</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>55.75</v>
+        <v>55.747</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.23</v>
+        <v>10.226</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.12</v>
+        <v>15.118</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>16.73</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.58</v>
+        <v>17.575</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>4.83</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.31</v>
+        <v>21.308</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.79</v>
+        <v>12.787</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.07</v>
+        <v>1.071</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.904</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>221.57</v>
+        <v>221.573</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>41.98</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>28.08</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.7</v>
+        <v>14.699</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.38</v>
+        <v>2.384</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.43</v>
+        <v>27.431</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.95</v>
+        <v>10.954</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.86</v>
+        <v>12.863</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.48</v>
+        <v>17.481</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>50.43</v>
+        <v>50.434</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>7.76</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>17.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45005.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>49.08</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>40.26</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.02</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.86</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>261.65</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>49.42</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.25</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>62.53</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_324.xlsx
+++ b/DATA_goal/Junction_Flooding_324.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,94 +967,94 @@
         <v>45005.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.09</v>
+        <v>14.093</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.2</v>
+        <v>1.199</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.75</v>
+        <v>41.748</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>34.13</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.12</v>
+        <v>15.123</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.92</v>
+        <v>58.918</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.3</v>
+        <v>10.295</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.22</v>
+        <v>15.218</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.76</v>
+        <v>16.757</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.64</v>
+        <v>17.637</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.83</v>
+        <v>4.831</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.37</v>
+        <v>21.372</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.72</v>
+        <v>12.724</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.835</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.799</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.59</v>
+        <v>221.588</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.07</v>
+        <v>42.072</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.22</v>
+        <v>28.221</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.77</v>
+        <v>14.769</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.29</v>
+        <v>2.286</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.6</v>
+        <v>28.601</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.91</v>
+        <v>10.908</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.82</v>
+        <v>12.816</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.54</v>
+        <v>17.544</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>53.51</v>
@@ -1063,7 +1063,111 @@
         <v>7.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.35</v>
+        <v>17.355</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45005.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>40.26</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>261.65</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>49.42</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>62.53</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_324.xlsx
+++ b/DATA_goal/Junction_Flooding_324.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,94 +967,94 @@
         <v>45005.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.217</v>
+        <v>19.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.093</v>
+        <v>14.09</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.199</v>
+        <v>1.2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.748</v>
+        <v>41.75</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>34.13</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.123</v>
+        <v>15.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.918</v>
+        <v>58.92</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.269</v>
+        <v>23.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.295</v>
+        <v>10.3</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.218</v>
+        <v>15.22</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.757</v>
+        <v>16.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.637</v>
+        <v>17.64</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.831</v>
+        <v>4.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.038</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.372</v>
+        <v>21.37</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.724</v>
+        <v>12.72</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.835</v>
+        <v>0.84</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.799</v>
+        <v>0.8</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.588</v>
+        <v>221.59</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.072</v>
+        <v>42.07</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.881</v>
+        <v>13.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.221</v>
+        <v>28.22</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.769</v>
+        <v>14.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.286</v>
+        <v>2.29</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.601</v>
+        <v>28.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.261</v>
+        <v>12.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.908</v>
+        <v>10.91</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.816</v>
+        <v>12.82</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.544</v>
+        <v>17.54</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>53.51</v>
@@ -1063,111 +1063,7 @@
         <v>7.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.355</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45005.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>49.08</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>40.26</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.02</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.86</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>261.65</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>49.42</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.25</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>62.53</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.39</v>
+        <v>17.35</v>
       </c>
     </row>
   </sheetData>
